--- a/SALES STATEMENTS/AMARNATH.xlsx
+++ b/SALES STATEMENTS/AMARNATH.xlsx
@@ -708,8 +708,8 @@
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
